--- a/www/IndicatorsPerCountry/Swaziland_GDPperCapita_TerritorialRef_1968_2012_CCode_748.xlsx
+++ b/www/IndicatorsPerCountry/Swaziland_GDPperCapita_TerritorialRef_1968_2012_CCode_748.xlsx
@@ -237,13 +237,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Swaziland_GDPperCapita_TerritorialRef_1968_2012_CCode_748.xlsx
+++ b/www/IndicatorsPerCountry/Swaziland_GDPperCapita_TerritorialRef_1968_2012_CCode_748.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,178 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>721</t>
-  </si>
-  <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>751</t>
-  </si>
-  <si>
-    <t>762</t>
-  </si>
-  <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>793</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>843</t>
-  </si>
-  <si>
-    <t>935</t>
-  </si>
-  <si>
-    <t>1028</t>
-  </si>
-  <si>
-    <t>1214</t>
-  </si>
-  <si>
-    <t>1252</t>
-  </si>
-  <si>
-    <t>1399</t>
-  </si>
-  <si>
-    <t>1577</t>
-  </si>
-  <si>
-    <t>1602</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1588</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>2036</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2258</t>
-  </si>
-  <si>
-    <t>2443</t>
-  </si>
-  <si>
-    <t>2462</t>
-  </si>
-  <si>
-    <t>2472</t>
-  </si>
-  <si>
-    <t>2473</t>
-  </si>
-  <si>
-    <t>2421</t>
-  </si>
-  <si>
-    <t>2397</t>
-  </si>
-  <si>
-    <t>2481</t>
-  </si>
-  <si>
-    <t>2548</t>
-  </si>
-  <si>
-    <t>2474</t>
-  </si>
-  <si>
-    <t>2437</t>
-  </si>
-  <si>
-    <t>2497</t>
-  </si>
-  <si>
-    <t>2494</t>
-  </si>
-  <si>
-    <t>2607</t>
-  </si>
-  <si>
-    <t>2429</t>
-  </si>
-  <si>
-    <t>2478</t>
-  </si>
-  <si>
-    <t>2434.95482786</t>
-  </si>
-  <si>
-    <t>2385.01615505</t>
-  </si>
-  <si>
-    <t>2324.06712153</t>
-  </si>
-  <si>
-    <t>2329.32127213</t>
-  </si>
-  <si>
-    <t>2394.6225738</t>
-  </si>
-  <si>
-    <t>2467.03733596</t>
-  </si>
-  <si>
-    <t>2499.39116151</t>
-  </si>
-  <si>
-    <t>2535.83262367</t>
-  </si>
-  <si>
-    <t>2564.36471791</t>
-  </si>
-  <si>
-    <t>2609.57997275</t>
-  </si>
-  <si>
-    <t>2630.32214463</t>
-  </si>
-  <si>
-    <t>2646.8776383</t>
-  </si>
-  <si>
-    <t>2700.24215474</t>
-  </si>
-  <si>
-    <t>2751.71112405</t>
-  </si>
-  <si>
-    <t>2803.62089704</t>
-  </si>
-  <si>
-    <t>2864.98211692</t>
-  </si>
-  <si>
-    <t>2953.35702355</t>
-  </si>
-  <si>
-    <t>3065.13477591</t>
-  </si>
-  <si>
-    <t>3150.2089804</t>
+    <t>604</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>658</t>
+  </si>
+  <si>
+    <t>663</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>684</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>1172</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>1431</t>
+  </si>
+  <si>
+    <t>1329</t>
+  </si>
+  <si>
+    <t>1350</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1722</t>
+  </si>
+  <si>
+    <t>1889</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2856</t>
+  </si>
+  <si>
+    <t>3142</t>
+  </si>
+  <si>
+    <t>3083</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>2990</t>
+  </si>
+  <si>
+    <t>2946</t>
+  </si>
+  <si>
+    <t>3049</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>2888</t>
+  </si>
+  <si>
+    <t>2858</t>
+  </si>
+  <si>
+    <t>2812</t>
+  </si>
+  <si>
+    <t>3210</t>
+  </si>
+  <si>
+    <t>3403</t>
+  </si>
+  <si>
+    <t>3492</t>
+  </si>
+  <si>
+    <t>3668</t>
+  </si>
+  <si>
+    <t>3881</t>
+  </si>
+  <si>
+    <t>3851.28982534085</t>
+  </si>
+  <si>
+    <t>3901.40008027314</t>
+  </si>
+  <si>
+    <t>3982.27937877135</t>
+  </si>
+  <si>
+    <t>4134.20810106055</t>
+  </si>
+  <si>
+    <t>4383.67749861418</t>
+  </si>
+  <si>
+    <t>4514.54908961906</t>
+  </si>
+  <si>
+    <t>4620.91849428404</t>
+  </si>
+  <si>
+    <t>4712.53626448705</t>
+  </si>
+  <si>
+    <t>4827.28628565564</t>
+  </si>
+  <si>
+    <t>4894.52073798417</t>
+  </si>
+  <si>
+    <t>4976.90494817179</t>
+  </si>
+  <si>
+    <t>5136.72484601096</t>
+  </si>
+  <si>
+    <t>5377.55761734061</t>
+  </si>
+  <si>
+    <t>5559.47008346137</t>
+  </si>
+  <si>
+    <t>5867.23342892405</t>
+  </si>
+  <si>
+    <t>6187.76615845552</t>
+  </si>
+  <si>
+    <t>6467.8203887397</t>
+  </si>
+  <si>
+    <t>6791.39216467607</t>
+  </si>
+  <si>
+    <t>7011.09530160533</t>
+  </si>
+  <si>
+    <t>7192.75195176725</t>
+  </si>
+  <si>
+    <t>7389</t>
+  </si>
+  <si>
+    <t>7552</t>
+  </si>
+  <si>
+    <t>7805</t>
+  </si>
+  <si>
+    <t>7927</t>
+  </si>
+  <si>
+    <t>7969</t>
+  </si>
+  <si>
+    <t>7881</t>
   </si>
   <si>
     <t>Description</t>
@@ -801,7 +828,7 @@
         <v>1978.0</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -818,7 +845,7 @@
         <v>1979.0</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -835,7 +862,7 @@
         <v>1980.0</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -852,7 +879,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -869,7 +896,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -886,7 +913,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -903,7 +930,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -920,7 +947,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -937,7 +964,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
@@ -954,7 +981,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -971,7 +998,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -988,7 +1015,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
@@ -1005,7 +1032,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -1022,7 +1049,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -1039,7 +1066,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -1056,7 +1083,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -1073,7 +1100,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -1090,7 +1117,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -1107,7 +1134,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1151,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
@@ -1141,7 +1168,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -1158,7 +1185,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
@@ -1175,7 +1202,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
@@ -1192,7 +1219,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
@@ -1209,7 +1236,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
@@ -1226,7 +1253,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
@@ -1243,7 +1270,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57">
@@ -1260,7 +1287,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
@@ -1277,7 +1304,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59">
@@ -1294,7 +1321,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60">
@@ -1311,7 +1338,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>748.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>748.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>748.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>748.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>748.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>748.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>748.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>748.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1329,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
